--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf6-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf6-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.8651055000000001</v>
+        <v>0.09207700000000001</v>
       </c>
       <c r="N2">
-        <v>1.730211</v>
+        <v>0.184154</v>
       </c>
       <c r="O2">
-        <v>0.418762651604452</v>
+        <v>0.0789959771480734</v>
       </c>
       <c r="P2">
-        <v>0.3305860461170526</v>
+        <v>0.05545240531440215</v>
       </c>
       <c r="Q2">
-        <v>0.003830110417</v>
+        <v>0.0004076555713333334</v>
       </c>
       <c r="R2">
-        <v>0.022980662502</v>
+        <v>0.002445933428</v>
       </c>
       <c r="S2">
-        <v>0.418762651604452</v>
+        <v>0.0789959771480734</v>
       </c>
       <c r="T2">
-        <v>0.3305860461170526</v>
+        <v>0.05545240531440215</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,22 +620,22 @@
         <v>2.969268</v>
       </c>
       <c r="O3">
-        <v>0.4791009269984018</v>
+        <v>0.8491451975864605</v>
       </c>
       <c r="P3">
-        <v>0.5673288217343945</v>
+        <v>0.8941052196698643</v>
       </c>
       <c r="Q3">
-        <v>0.004381979730666665</v>
+        <v>0.004381979730666666</v>
       </c>
       <c r="R3">
-        <v>0.03943781757599999</v>
+        <v>0.039437817576</v>
       </c>
       <c r="S3">
-        <v>0.4791009269984018</v>
+        <v>0.8491451975864605</v>
       </c>
       <c r="T3">
-        <v>0.5673288217343945</v>
+        <v>0.8941052196698643</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,90 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.09870899999999999</v>
+        <v>0.083758</v>
       </c>
       <c r="N4">
-        <v>0.197418</v>
+        <v>0.167516</v>
       </c>
       <c r="O4">
-        <v>0.04778104240144566</v>
+        <v>0.07185882526546619</v>
       </c>
       <c r="P4">
-        <v>0.0377200445797283</v>
+        <v>0.05044237501573352</v>
       </c>
       <c r="Q4">
-        <v>0.0004370176459999999</v>
+        <v>0.0003708245853333334</v>
       </c>
       <c r="R4">
-        <v>0.002622105876</v>
+        <v>0.002224947512</v>
       </c>
       <c r="S4">
-        <v>0.04778104240144566</v>
+        <v>0.07185882526546619</v>
       </c>
       <c r="T4">
-        <v>0.0377200445797283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.004427333333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.013282</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.1122906666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.336872</v>
-      </c>
-      <c r="O5">
-        <v>0.0543553789957005</v>
-      </c>
-      <c r="P5">
-        <v>0.06436508756882468</v>
-      </c>
-      <c r="Q5">
-        <v>0.0004971482115555555</v>
-      </c>
-      <c r="R5">
-        <v>0.004474333903999999</v>
-      </c>
-      <c r="S5">
-        <v>0.0543553789957005</v>
-      </c>
-      <c r="T5">
-        <v>0.06436508756882468</v>
+        <v>0.05044237501573352</v>
       </c>
     </row>
   </sheetData>
